--- a/StructureDefinition-profile-List.xlsx
+++ b/StructureDefinition-profile-List.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="320">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.7236315-06:00</t>
+    <t>2026-02-09T22:05:43.1852707-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -721,11 +721,24 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-List.source|0.0.1-snapshot-3}
+    <t>List.source.extension:source</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
 </t>
   </si>
   <si>
     <t>Cross-version extension for List.source from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `List.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `List.source` is mapped to FHIR R4 element `List.source`.</t>
   </si>
   <si>
     <t>List.source.reference</t>
@@ -1315,7 +1328,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.53125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.69140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.53125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1325,7 +1338,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="76.65625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3537,7 +3550,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>77</v>
@@ -3632,12 +3645,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3658,16 +3673,16 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3740,10 +3755,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3769,13 +3784,13 @@
         <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3825,7 +3840,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3834,7 +3849,7 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>97</v>
@@ -3848,10 +3863,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3877,13 +3892,13 @@
         <v>99</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3909,13 +3924,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -3933,7 +3948,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3956,10 +3971,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3985,13 +4000,13 @@
         <v>143</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4041,7 +4056,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4056,7 +4071,7 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>78</v>
@@ -4064,10 +4079,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4093,13 +4108,13 @@
         <v>167</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4149,7 +4164,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4172,10 +4187,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4201,16 +4216,16 @@
         <v>174</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
@@ -4238,10 +4253,10 @@
         <v>109</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4259,7 +4274,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4274,7 +4289,7 @@
         <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -4282,10 +4297,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4308,13 +4323,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4365,7 +4380,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4380,7 +4395,7 @@
         <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
@@ -4388,10 +4403,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4414,16 +4429,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4473,7 +4488,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4482,13 +4497,13 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>78</v>
@@ -4496,10 +4511,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4602,10 +4617,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4634,7 +4649,7 @@
         <v>132</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>134</v>
@@ -4710,14 +4725,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4739,10 +4754,10 @@
         <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N32" t="s" s="2">
         <v>134</v>
@@ -4797,7 +4812,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4820,10 +4835,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4849,16 +4864,16 @@
         <v>174</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -4886,10 +4901,10 @@
         <v>179</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -4907,7 +4922,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -4930,10 +4945,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4956,71 +4971,71 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="N34" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="P34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q34" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5028,13 +5043,13 @@
         <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -5042,10 +5057,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5071,14 +5086,14 @@
         <v>199</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5127,7 +5142,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -5142,7 +5157,7 @@
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -5150,10 +5165,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5176,13 +5191,13 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5233,7 +5248,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>85</v>
@@ -5248,7 +5263,7 @@
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -5256,10 +5271,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5285,16 +5300,16 @@
         <v>174</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5322,10 +5337,10 @@
         <v>109</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5343,7 +5358,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5352,13 +5367,13 @@
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-profile-List.xlsx
+++ b/StructureDefinition-profile-List.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="325">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.1852707-06:00</t>
+    <t>2026-02-17T14:42:26.8371117-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -738,7 +738,7 @@
   </si>
   <si>
     <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `List.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `List.source` is mapped to FHIR R4 element `List.source`.</t>
+Element `List.source` has is mapped to FHIR R4 element `List.source`, but has no comparisons.</t>
   </si>
   <si>
     <t>List.source.reference</t>
@@ -890,7 +890,24 @@
     <t>List.entry.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>List.entry.extension:entry</t>
+  </si>
+  <si>
+    <t>entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-List.entry|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for List.entry from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `List.entry` has is mapped to FHIR R4 element `List.entry`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>List.entry.modifierExtension</t>
@@ -1319,7 +1336,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL37"/>
+  <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1338,7 +1355,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.2109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.5625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4624,7 +4641,7 @@
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -4646,14 +4663,12 @@
         <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>132</v>
+        <v>221</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4690,16 +4705,14 @@
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>78</v>
+        <v>225</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>226</v>
@@ -4717,7 +4730,7 @@
         <v>136</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -4725,14 +4738,16 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C32" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="B32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>282</v>
+        <v>78</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4745,26 +4760,24 @@
         <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="N32" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>140</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -4812,7 +4825,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>226</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4821,13 +4834,13 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
@@ -4842,38 +4855,38 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>290</v>
+        <v>140</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -4898,13 +4911,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>292</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -4922,22 +4935,22 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>78</v>
@@ -4945,10 +4958,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4965,59 +4978,57 @@
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N34" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="P34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="O34" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q34" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5034,7 +5045,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5043,13 +5054,13 @@
         <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>301</v>
+        <v>164</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -5057,10 +5068,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5077,81 +5088,85 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>199</v>
+        <v>299</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="P35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q35" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI35" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>97</v>
@@ -5176,7 +5191,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>85</v>
@@ -5191,16 +5206,18 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5251,7 +5268,7 @@
         <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>85</v>
@@ -5282,7 +5299,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>85</v>
@@ -5297,20 +5314,16 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>174</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="O37" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -5334,13 +5347,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>317</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -5361,21 +5374,131 @@
         <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="N38" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="P38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q38" s="2"/>
+      <c r="R38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-List.xlsx
+++ b/StructureDefinition-profile-List.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="336">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.8371117-06:00</t>
+    <t>2026-02-20T11:59:20.8616138-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/List|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/List</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -611,80 +611,7 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>List.encounter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Context in which list created</t>
-  </si>
-  <si>
-    <t>The encounter that is the context in which this list was created.</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>FiveWs.context</t>
-  </si>
-  <si>
-    <t>List.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>When the list was prepared</t>
-  </si>
-  <si>
-    <t>The date that the list was prepared.</t>
-  </si>
-  <si>
-    <t>The actual important date is the date of currency of the resources that were summarized, but it is usually assumed that these are current when the preparation occurs.</t>
-  </si>
-  <si>
-    <t>Identifies how current the list is which affects relevance.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode&lt;AUT].time[type=TS]</t>
-  </si>
-  <si>
-    <t>FiveWs.recorded</t>
-  </si>
-  <si>
-    <t>List.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Author
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|Device|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Who and/or what defined the list contents (aka Author)</t>
-  </si>
-  <si>
-    <t>The entity responsible for deciding what the contents of the list were. Where the list was created by a human, this is the same as the author of the list.</t>
-  </si>
-  <si>
-    <t>The primary source is the entity that made the decisions what items are in the list. This may be software or user.</t>
-  </si>
-  <si>
-    <t>Allows follow-up as well as context.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=PSN,determinerCode=INST] or .participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=DEV,determinerCode=INST]</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>List.source.id</t>
+    <t>List.subject.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -699,7 +626,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>List.source.extension</t>
+    <t>List.subject.extension</t>
   </si>
   <si>
     <t>Extension</t>
@@ -721,27 +648,27 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>List.source.extension:source</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference|5.2.0}
+    <t>List.subject.extension:subject</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {alternate-reference}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for List.source from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `List.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `List.source` has is mapped to FHIR R4 element `List.source`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>List.source.reference</t>
+    <t>Cross-version extension for List.subject from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `List.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `List.subject` has is mapped to FHIR R4 element `List.subject`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>List.subject.reference</t>
   </si>
   <si>
     <t>Literal reference, Relative, internal or absolute URL</t>
@@ -760,7 +687,7 @@
 </t>
   </si>
   <si>
-    <t>List.source.type</t>
+    <t>List.subject.type</t>
   </si>
   <si>
     <t>Type the reference refers to (e.g. "Patient")</t>
@@ -785,7 +712,7 @@
     <t>Reference.type</t>
   </si>
   <si>
-    <t>List.source.identifier</t>
+    <t>List.subject.identifier</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -806,19 +733,126 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>List.subject.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
+    <t>List.encounter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Context in which list created</t>
+  </si>
+  <si>
+    <t>The encounter that is the context in which this list was created.</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN]</t>
+  </si>
+  <si>
+    <t>FiveWs.context</t>
+  </si>
+  <si>
+    <t>List.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>When the list was prepared</t>
+  </si>
+  <si>
+    <t>The date that the list was prepared.</t>
+  </si>
+  <si>
+    <t>The actual important date is the date of currency of the resources that were summarized, but it is usually assumed that these are current when the preparation occurs.</t>
+  </si>
+  <si>
+    <t>Identifies how current the list is which affects relevance.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode&lt;AUT].time[type=TS]</t>
+  </si>
+  <si>
+    <t>FiveWs.recorded</t>
+  </si>
+  <si>
+    <t>List.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Author
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|Device|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Who and/or what defined the list contents (aka Author)</t>
+  </si>
+  <si>
+    <t>The entity responsible for deciding what the contents of the list were. Where the list was created by a human, this is the same as the author of the list.</t>
+  </si>
+  <si>
+    <t>The primary source is the entity that made the decisions what items are in the list. This may be software or user.</t>
+  </si>
+  <si>
+    <t>Allows follow-up as well as context.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=PSN,determinerCode=INST] or .participation[typeCode&lt;AUT].role[classCode=REL].player[classCode=DEV,determinerCode=INST]</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>List.source.id</t>
+  </si>
+  <si>
+    <t>List.source.extension</t>
+  </si>
+  <si>
+    <t>List.source.extension:source</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Cross-version extension for List.source from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `List.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `List.source` has is mapped to FHIR R4 element `List.source`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>List.source.reference</t>
+  </si>
+  <si>
+    <t>List.source.type</t>
+  </si>
+  <si>
+    <t>List.source.identifier</t>
+  </si>
+  <si>
     <t>List.source.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
   </si>
   <si>
     <t>List.orderedBy</t>
@@ -896,7 +930,7 @@
     <t>entry</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-List.entry|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-List.entry}
 </t>
   </si>
   <si>
@@ -1336,7 +1370,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL38"/>
+  <dimension ref="A1:AL45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1345,7 +1379,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.69140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="24.57421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.53125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1355,7 +1389,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.5625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.2109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3150,13 +3184,13 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3207,7 +3241,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3219,21 +3253,21 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>197</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3244,7 +3278,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3253,23 +3287,19 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>203</v>
-      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3305,49 +3335,51 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>205</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3363,23 +3395,21 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3427,33 +3457,33 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>213</v>
+        <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>214</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3473,18 +3503,20 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -3533,7 +3565,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3542,13 +3574,13 @@
         <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>78</v>
@@ -3556,10 +3588,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3570,7 +3602,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3579,18 +3611,20 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3615,46 +3649,46 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC21" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
@@ -3662,14 +3696,12 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
         <v>78</v>
       </c>
@@ -3687,19 +3719,19 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>143</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3749,22 +3781,22 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
@@ -3772,10 +3804,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3801,13 +3833,13 @@
         <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3857,7 +3889,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3866,7 +3898,7 @@
         <v>85</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>97</v>
@@ -3880,10 +3912,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3903,20 +3935,18 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -3941,13 +3971,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -3965,7 +3995,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -3980,18 +4010,18 @@
         <v>97</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>78</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4014,18 +4044,20 @@
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
       </c>
@@ -4073,7 +4105,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4088,22 +4120,22 @@
         <v>97</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4122,18 +4154,20 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>167</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="N26" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -4181,7 +4215,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4196,10 +4230,10 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
@@ -4230,20 +4264,16 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>193</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4267,13 +4297,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>264</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -4291,7 +4321,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4303,10 +4333,10 @@
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>265</v>
+        <v>196</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -4314,10 +4344,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4340,13 +4370,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>267</v>
+        <v>131</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>269</v>
+        <v>199</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4385,19 +4415,19 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>266</v>
+        <v>203</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -4409,10 +4439,10 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
@@ -4420,12 +4450,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
@@ -4434,7 +4466,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -4446,16 +4478,16 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4505,7 +4537,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>203</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4514,13 +4546,13 @@
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>276</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>277</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>78</v>
@@ -4528,10 +4560,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4551,18 +4583,20 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
@@ -4611,7 +4645,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4620,13 +4654,13 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>215</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>78</v>
@@ -4634,10 +4668,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4648,7 +4682,7 @@
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -4657,18 +4691,20 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -4693,44 +4729,46 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>78</v>
@@ -4738,14 +4776,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>78</v>
       </c>
@@ -4754,7 +4790,7 @@
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -4763,19 +4799,19 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>143</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>225</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4825,22 +4861,22 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>285</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>78</v>
@@ -4848,46 +4884,44 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>231</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>140</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -4935,19 +4969,19 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>234</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>128</v>
@@ -4958,10 +4992,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4987,16 +5021,16 @@
         <v>174</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5021,13 +5055,13 @@
         <v>78</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>179</v>
+        <v>109</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>78</v>
@@ -5045,7 +5079,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -5060,7 +5094,7 @@
         <v>97</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>164</v>
+        <v>276</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -5068,10 +5102,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5082,38 +5116,32 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>303</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q35" t="s" s="2">
-        <v>304</v>
-      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
         <v>78</v>
       </c>
@@ -5157,22 +5185,22 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>305</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -5180,10 +5208,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5194,7 +5222,7 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5206,18 +5234,18 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
@@ -5265,22 +5293,22 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>78</v>
@@ -5288,10 +5316,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5299,7 +5327,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>85</v>
@@ -5314,13 +5342,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>313</v>
+        <v>167</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>314</v>
+        <v>193</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>315</v>
+        <v>194</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -5371,10 +5399,10 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>195</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>85</v>
@@ -5383,10 +5411,10 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -5394,10 +5422,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5408,7 +5436,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5420,20 +5448,16 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>318</v>
+        <v>198</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>321</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -5457,48 +5481,812 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AC38" s="2"/>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q42" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X45" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y38" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="Y45" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AK45" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>78</v>
       </c>
     </row>

--- a/StructureDefinition-profile-List.xlsx
+++ b/StructureDefinition-profile-List.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="282">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.8616138-06:00</t>
+    <t>2026-02-21T13:36:54.2647192-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/List</t>
+    <t>http://hl7.org/fhir/StructureDefinition/List|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -611,143 +611,6 @@
     <t>FiveWs.subject</t>
   </si>
   <si>
-    <t>List.subject.id</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>List.subject.extension</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>List.subject.extension:subject</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {alternate-reference}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for List.subject from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/Resource in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `List.subject` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `List.subject` has is mapped to FHIR R4 element `List.subject`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>List.subject.reference</t>
-  </si>
-  <si>
-    <t>Literal reference, Relative, internal or absolute URL</t>
-  </si>
-  <si>
-    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
-  </si>
-  <si>
-    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
-  </si>
-  <si>
-    <t>Reference.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ref-1
-</t>
-  </si>
-  <si>
-    <t>List.subject.type</t>
-  </si>
-  <si>
-    <t>Type the reference refers to (e.g. "Patient")</t>
-  </si>
-  <si>
-    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
-The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
-  </si>
-  <si>
-    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Aa resource (or, for logical models, the URI of the logical model).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
-  </si>
-  <si>
-    <t>Reference.type</t>
-  </si>
-  <si>
-    <t>List.subject.identifier</t>
-  </si>
-  <si>
-    <t>Logical reference, when literal reference is not known</t>
-  </si>
-  <si>
-    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
-  </si>
-  <si>
-    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
-When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
-Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
-Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
-  </si>
-  <si>
-    <t>Reference.identifier</t>
-  </si>
-  <si>
-    <t>.identifier</t>
-  </si>
-  <si>
-    <t>List.subject.display</t>
-  </si>
-  <si>
-    <t>Text alternative for the resource</t>
-  </si>
-  <si>
-    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
-  </si>
-  <si>
-    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
-  </si>
-  <si>
-    <t>Reference.display</t>
-  </si>
-  <si>
     <t>List.encounter</t>
   </si>
   <si>
@@ -821,40 +684,6 @@
     <t>FiveWs.author</t>
   </si>
   <si>
-    <t>List.source.id</t>
-  </si>
-  <si>
-    <t>List.source.extension</t>
-  </si>
-  <si>
-    <t>List.source.extension:source</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Cross-version extension for List.source from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>This extension can be used as a substitute for elements with reference targets of http://hl7.org/fhir/StructureDefinition/CareTeam,http://hl7.org/fhir/StructureDefinition/Organization,http://hl7.org/fhir/StructureDefinition/RelatedPerson in FHIR R4</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `List.source` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
-Element `List.source` has is mapped to FHIR R4 element `List.source`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>List.source.reference</t>
-  </si>
-  <si>
-    <t>List.source.type</t>
-  </si>
-  <si>
-    <t>List.source.identifier</t>
-  </si>
-  <si>
-    <t>List.source.display</t>
-  </si>
-  <si>
     <t>List.orderedBy</t>
   </si>
   <si>
@@ -921,27 +750,25 @@
     <t>List.entry.id</t>
   </si>
   <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>List.entry.extension</t>
   </si>
   <si>
-    <t>List.entry.extension:entry</t>
-  </si>
-  <si>
-    <t>entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-List.entry}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for List.entry from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `List.entry` has is mapped to FHIR R4 element `List.entry`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
   </si>
   <si>
     <t>List.entry.modifierExtension</t>
@@ -1370,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL45"/>
+  <dimension ref="A1:AL30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1379,7 +1206,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="24.57421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.53125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="23.53125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1407,7 +1234,7 @@
     <col min="26" max="26" width="44.1171875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
@@ -3184,13 +3011,13 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3241,7 +3068,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3253,21 +3080,21 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>196</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>78</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3278,7 +3105,7 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>78</v>
@@ -3287,19 +3114,23 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
       </c>
@@ -3335,51 +3166,49 @@
         <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>78</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3395,21 +3224,23 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>78</v>
       </c>
@@ -3457,33 +3288,33 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>78</v>
+        <v>213</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3503,21 +3334,23 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -3541,13 +3374,13 @@
         <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>78</v>
@@ -3565,7 +3398,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3574,13 +3407,13 @@
         <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>128</v>
+        <v>222</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>78</v>
@@ -3588,10 +3421,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3602,7 +3435,7 @@
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -3611,20 +3444,18 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>99</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -3649,13 +3480,13 @@
         <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>220</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>78</v>
@@ -3679,7 +3510,7 @@
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>78</v>
@@ -3688,7 +3519,7 @@
         <v>97</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>128</v>
+        <v>227</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>78</v>
@@ -3696,10 +3527,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3710,7 +3541,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -3719,19 +3550,19 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>143</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3787,16 +3618,16 @@
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>78</v>
@@ -3804,10 +3635,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3827,20 +3658,18 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>167</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -3889,7 +3718,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3901,10 +3730,10 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>78</v>
@@ -3912,21 +3741,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -3938,15 +3767,17 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>236</v>
+        <v>131</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
@@ -3995,68 +3826,68 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>239</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>78</v>
+        <v>244</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>242</v>
+        <v>131</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4105,37 +3936,37 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>247</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>250</v>
+        <v>78</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4151,22 +3982,22 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
@@ -4191,13 +4022,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>78</v>
+        <v>253</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -4215,7 +4046,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4230,18 +4061,18 @@
         <v>97</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>256</v>
+        <v>164</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4258,26 +4089,32 @@
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>167</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="R27" t="s" s="2">
         <v>78</v>
       </c>
@@ -4321,7 +4158,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>195</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
@@ -4330,13 +4167,13 @@
         <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>78</v>
+        <v>262</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>196</v>
+        <v>263</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -4344,10 +4181,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4358,7 +4195,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4370,16 +4207,18 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>198</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -4415,34 +4254,34 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>203</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>78</v>
+        <v>268</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
@@ -4450,20 +4289,18 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>85</v>
@@ -4478,17 +4315,15 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -4537,22 +4372,22 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>203</v>
+        <v>269</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>78</v>
@@ -4560,10 +4395,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4583,21 +4418,23 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
+        <v>276</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
@@ -4621,13 +4458,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>78</v>
+        <v>279</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -4645,7 +4482,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>214</v>
+        <v>274</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4654,1639 +4491,15 @@
         <v>85</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>128</v>
+        <v>281</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O31" s="2"/>
-      <c r="P31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q31" s="2"/>
-      <c r="R31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="O32" s="2"/>
-      <c r="P32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q32" s="2"/>
-      <c r="R32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="O33" s="2"/>
-      <c r="P33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E34" s="2"/>
-      <c r="F34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E36" s="2"/>
-      <c r="F36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="O36" s="2"/>
-      <c r="P36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AC38" s="2"/>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="D39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O39" s="2"/>
-      <c r="P39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="P40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q40" s="2"/>
-      <c r="R40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E41" s="2"/>
-      <c r="F41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q41" s="2"/>
-      <c r="R41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q42" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E43" s="2"/>
-      <c r="F43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="P43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q43" s="2"/>
-      <c r="R43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q44" s="2"/>
-      <c r="R44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="P45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q45" s="2"/>
-      <c r="R45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AL45" t="s" s="2">
         <v>78</v>
       </c>
     </row>
